--- a/11.GenerateWorkingHoursV2022/项目信息-测试数据.xlsx
+++ b/11.GenerateWorkingHoursV2022/项目信息-测试数据.xlsx
@@ -69,27 +69,30 @@
     <t>研发</t>
   </si>
   <si>
+    <t>产品类</t>
+  </si>
+  <si>
+    <t>01BU</t>
+  </si>
+  <si>
+    <t>火箭设计部</t>
+  </si>
+  <si>
+    <t>X系列亚轨道火箭</t>
+  </si>
+  <si>
+    <t>火箭公司</t>
+  </si>
+  <si>
+    <t>李云鹏、彭偲、艾之恒、刘帆、王伟民、常栋晖、赵龙、常耀予、许传硕、张家齐、杨晨声、彭波、魏强、王兵、吴论、易跃</t>
+  </si>
+  <si>
+    <t>亚轨道火箭投送系统研究</t>
+  </si>
+  <si>
     <t>技术类</t>
   </si>
   <si>
-    <t>01BU</t>
-  </si>
-  <si>
-    <t>火箭设计部</t>
-  </si>
-  <si>
-    <t>X系列亚轨道火箭</t>
-  </si>
-  <si>
-    <t>火箭公司</t>
-  </si>
-  <si>
-    <t>李云鹏、彭偲、艾之恒、刘帆、王伟民、常栋晖、赵龙、常耀予、许传硕、张家齐、杨晨声、彭波、魏强、王兵</t>
-  </si>
-  <si>
-    <t>亚轨道火箭投送系统研究</t>
-  </si>
-  <si>
     <t>李云鹏、彭偲、艾之恒、杨民、刘思、杨晨声、方志晓、贾国鹏、凡玉龙、徐斌、彭波、魏强、王兵、冉俊塽、张霞、雷健</t>
   </si>
   <si>
@@ -135,13 +138,16 @@
     <t>OPM项目管理软件开发</t>
   </si>
   <si>
-    <t>王兵、彭波、魏强、鲁鹏、曾理扬、李江宜、许曦、罗川</t>
+    <t>外接</t>
+  </si>
+  <si>
+    <t>王兵、彭波、魏强、鲁鹏、曾理扬、李江宜、许曦、罗川、扬天财、邹小冬</t>
   </si>
   <si>
     <t>零壹空间官网系统</t>
   </si>
   <si>
-    <t>王兵、魏强、鲁鹏、李江宜、许曦、陈晋</t>
+    <t>王兵、魏强、鲁鹏、李江宜、许曦、陈晋、易跃、邹小冬</t>
   </si>
   <si>
     <t>集装箱发射平台预先研究（第一阶段）</t>
@@ -174,7 +180,7 @@
     <t>巡飞弹发射车预先研究</t>
   </si>
   <si>
-    <t>刘磊，陈超，谢强，邓星，张露</t>
+    <t>刘磊，陈超，谢强，邓星，张露，赵丕乐、周涛、屈艾，宋超</t>
   </si>
   <si>
     <t>多点重载快速调平技术开发</t>
@@ -183,21 +189,18 @@
     <t>集装箱通用发射总体及平台设计技术</t>
   </si>
   <si>
-    <t>赵丕乐，周泽军，缪起，王力，周涛</t>
+    <t>赵丕乐，周泽军，缪起，王力，周涛、易跃、吴论、曾圆凯</t>
   </si>
   <si>
     <t>双缸辅助起竖技术开发</t>
   </si>
   <si>
-    <t>屈艾，宋超</t>
+    <t>屈艾，宋超、俞剑鹏、易跃、吴论</t>
   </si>
   <si>
     <t>火箭地面发射装备总体载荷优化技术</t>
   </si>
   <si>
-    <t>外接</t>
-  </si>
-  <si>
     <t>袁公政、周泽军、缪起、刘刚、刘春亚、谢强、韩笑峰、刘磊、陈超、侯少林、邢盟、杜晔、郝庆升、杨肖、杨远正、周林、严乔、李想、田绍云、王波、屈艾、毕伟、邓红川、宋超、张宏森、陈凯、王力</t>
   </si>
   <si>
@@ -210,7 +213,7 @@
     <t>V系列保障装备</t>
   </si>
   <si>
-    <t>王波、严乔、周林</t>
+    <t>王波、严乔、周林、周林、田绍云、杨远正</t>
   </si>
   <si>
     <t>通用化无人机转运装置研究</t>
@@ -222,7 +225,7 @@
     <t>方舱转接屏蔽壁盒技术开发</t>
   </si>
   <si>
-    <t>周林、田绍云、杨远正</t>
+    <t>周林、田绍云、杨远正、吴论、易跃、邹小冬</t>
   </si>
   <si>
     <t>分布式同步采集遥记一体技术开发</t>
@@ -249,13 +252,13 @@
     <t>T系列遥测</t>
   </si>
   <si>
-    <t>李建平、叶育茂、孙博、徐静远、邓志辉</t>
+    <t>李建平、叶育茂、孙博、徐静远、邓志辉、刘祖臣</t>
   </si>
   <si>
     <t>82mm图传一体化设备</t>
   </si>
   <si>
-    <t>苗守宫、李建平、刘祖臣、徐静远、孙博、邓志辉</t>
+    <t>苗守宫、李建平、刘祖臣、徐静远、孙博、邓志辉、论、易跃、邹小冬</t>
   </si>
   <si>
     <t>点对点数据链</t>
@@ -1005,15 +1008,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.8310546875" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.83203125" customWidth="1" style="4"/>
-    <col min="2" max="2" width="13.5" customWidth="1" style="4"/>
+    <col min="1" max="1" width="27.7060546875" customWidth="1" style="4"/>
+    <col min="2" max="2" width="6.873046875" customWidth="1" style="4"/>
     <col min="3" max="3" width="10.8310546875" style="6"/>
-    <col min="4" max="5" width="11.8330078125" customWidth="1" style="4"/>
+    <col min="4" max="4" width="11.8330078125" customWidth="1" style="4"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1" style="4"/>
     <col min="6" max="7" width="13.998046875" customWidth="1" style="4"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1" style="4"/>
-    <col min="9" max="9" width="15.9990234375" customWidth="1" style="6"/>
-    <col min="10" max="10" width="13.998046875" customWidth="1" style="6"/>
-    <col min="11" max="11" width="10.8310546875" style="6"/>
+    <col min="8" max="8" width="14.33203125" hidden="1" customWidth="1" style="4"/>
+    <col min="9" max="9" width="15.9990234375" hidden="1" customWidth="1" style="6"/>
+    <col min="10" max="10" width="13.998046875" hidden="1" customWidth="1" style="6"/>
+    <col min="11" max="11" width="10.8310546875" hidden="1" style="6"/>
     <col min="12" max="12" width="54.3310546875" customWidth="1" style="6"/>
     <col min="13" max="13" width="10" style="17"/>
   </cols>
@@ -1119,7 +1123,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>18</v>
@@ -1144,7 +1148,7 @@
         <v>16896</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="11" t="n">
         <v>16</v>
@@ -1156,7 +1160,7 @@
     </row>
     <row r="4" ht="27.75" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>15</v>
@@ -1165,7 +1169,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>18</v>
@@ -1174,7 +1178,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>21</v>
@@ -1190,7 +1194,7 @@
         <v>18304</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" s="11" t="n">
         <v>16</v>
@@ -1202,7 +1206,7 @@
     </row>
     <row r="5" ht="27.75" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>15</v>
@@ -1211,16 +1215,16 @@
         <v>16</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>21</v>
@@ -1236,7 +1240,7 @@
         <v>18480</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M5" s="11" t="n">
         <v>14</v>
@@ -1248,7 +1252,7 @@
     </row>
     <row r="6" ht="27.75" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>15</v>
@@ -1257,7 +1261,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>18</v>
@@ -1266,7 +1270,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>21</v>
@@ -1282,7 +1286,7 @@
         <v>6336</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="11" t="n">
         <v>6</v>
@@ -1294,7 +1298,7 @@
     </row>
     <row r="7" ht="41.25" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>15</v>
@@ -1303,7 +1307,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>18</v>
@@ -1312,7 +1316,7 @@
         <v>19</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>21</v>
@@ -1328,7 +1332,7 @@
         <v>5280</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M7" s="11" t="n">
         <v>5</v>
@@ -1340,13 +1344,13 @@
     </row>
     <row r="8" ht="27.75" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>17</v>
@@ -1355,10 +1359,10 @@
         <v>18</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>21</v>
@@ -1374,7 +1378,7 @@
         <v>10560</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M8" s="11" t="n">
         <v>8</v>
@@ -1386,13 +1390,13 @@
     </row>
     <row r="9" ht="27.75" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>17</v>
@@ -1401,10 +1405,10 @@
         <v>18</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>21</v>
@@ -1420,7 +1424,7 @@
         <v>1056</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M9" s="11" t="n">
         <v>6</v>
@@ -1432,7 +1436,7 @@
     </row>
     <row r="10" ht="16" customHeight="1">
       <c r="A10" s="20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>15</v>
@@ -1441,16 +1445,16 @@
         <v>16</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>21</v>
@@ -1466,7 +1470,7 @@
         <v>12672</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M10" s="11" t="n">
         <v>9</v>
@@ -1478,7 +1482,7 @@
     </row>
     <row r="11" ht="16" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>15</v>
@@ -1487,16 +1491,16 @@
         <v>16</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>21</v>
@@ -1512,7 +1516,7 @@
         <v>9504</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M11" s="11" t="n">
         <v>9</v>
@@ -1524,7 +1528,7 @@
     </row>
     <row r="12" ht="16" customHeight="1">
       <c r="A12" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>15</v>
@@ -1533,16 +1537,16 @@
         <v>16</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>21</v>
@@ -1558,7 +1562,7 @@
         <v>5280</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M12" s="11" t="n">
         <v>5</v>
@@ -1570,25 +1574,25 @@
     </row>
     <row r="13" ht="41.25" customHeight="1">
       <c r="A13" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H13" s="21" t="s">
         <v>21</v>
@@ -1604,7 +1608,7 @@
         <v>5280</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M13" s="11" t="n">
         <v>5</v>
@@ -1616,25 +1620,25 @@
     </row>
     <row r="14" ht="41.25" customHeight="1">
       <c r="A14" s="20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>21</v>
@@ -1650,7 +1654,7 @@
         <v>2112</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M14" s="11" t="n">
         <v>2</v>
@@ -1662,25 +1666,25 @@
     </row>
     <row r="15" ht="41.25" customHeight="1">
       <c r="A15" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>21</v>
@@ -1696,7 +1700,7 @@
         <v>38016</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M15" s="11" t="n">
         <v>27</v>
@@ -1708,25 +1712,25 @@
     </row>
     <row r="16" ht="16" customHeight="1">
       <c r="A16" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>21</v>
@@ -1742,7 +1746,7 @@
         <v>3168</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M16" s="11" t="n">
         <v>3</v>
@@ -1754,25 +1758,25 @@
     </row>
     <row r="17" ht="16" customHeight="1">
       <c r="A17" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H17" s="21" t="s">
         <v>21</v>
@@ -1788,7 +1792,7 @@
         <v>3168</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M17" s="11" t="n">
         <v>3</v>
@@ -1800,25 +1804,25 @@
     </row>
     <row r="18" ht="41.25" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H18" s="21" t="s">
         <v>21</v>
@@ -1834,7 +1838,7 @@
         <v>3168</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M18" s="11" t="n">
         <v>3</v>
@@ -1846,28 +1850,28 @@
     </row>
     <row r="19" ht="41.25" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I19" s="20" t="n">
         <v>20210101</v>
@@ -1880,7 +1884,7 @@
         <v>8448</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M19" s="11" t="n">
         <v>8</v>
@@ -1892,28 +1896,28 @@
     </row>
     <row r="20" ht="16" customHeight="1">
       <c r="A20" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I20" s="20" t="n">
         <v>20210601</v>
@@ -1926,7 +1930,7 @@
         <v>4400</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M20" s="11" t="n">
         <v>5</v>
@@ -1938,28 +1942,28 @@
     </row>
     <row r="21" ht="16" customHeight="1">
       <c r="A21" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I21" s="20" t="n">
         <v>20211201</v>
@@ -1972,7 +1976,7 @@
         <v>3696</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M21" s="11" t="n">
         <v>6</v>
@@ -1984,28 +1988,28 @@
     </row>
     <row r="22" ht="16" customHeight="1">
       <c r="A22" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I22" s="20" t="n">
         <v>20210101</v>
@@ -2018,7 +2022,7 @@
         <v>4224</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M22" s="11" t="n">
         <v>4</v>
@@ -2030,28 +2034,28 @@
     </row>
     <row r="23" ht="16" customHeight="1">
       <c r="A23" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I23" s="20" t="n">
         <v>20210101</v>
@@ -2064,7 +2068,7 @@
         <v>5280</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M23" s="11" t="n">
         <v>5</v>
@@ -2076,28 +2080,28 @@
     </row>
     <row r="24" ht="27.75" customHeight="1">
       <c r="A24" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I24" s="20" t="n">
         <v>20211201</v>
@@ -2110,7 +2114,7 @@
         <v>6160</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M24" s="11" t="n">
         <v>10</v>
@@ -2122,28 +2126,28 @@
     </row>
     <row r="25" ht="16" customHeight="1">
       <c r="A25" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I25" s="20" t="n">
         <v>20210101</v>
@@ -2156,7 +2160,7 @@
         <v>8448</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M25" s="11" t="n">
         <v>8</v>
@@ -2168,28 +2172,28 @@
     </row>
     <row r="26" ht="16" customHeight="1">
       <c r="A26" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I26" s="20" t="n">
         <v>20210101</v>
@@ -2202,7 +2206,7 @@
         <v>7392</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M26" s="11" t="n">
         <v>7</v>
@@ -2214,28 +2218,28 @@
     </row>
     <row r="27" ht="16" customHeight="1">
       <c r="A27" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I27" s="20" t="n">
         <v>20210101</v>
@@ -2248,7 +2252,7 @@
         <v>3168</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M27" s="11" t="n">
         <v>3</v>
@@ -2260,28 +2264,28 @@
     </row>
     <row r="28" ht="27.75" customHeight="1">
       <c r="A28" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I28" s="22" t="n">
         <v>220211101</v>
@@ -2294,7 +2298,7 @@
         <v>3168</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M28" s="11" t="n">
         <v>6</v>
@@ -2331,6 +2335,7 @@
     </row>
     <row r="33" ht="16" customHeight="1">
       <c r="C33" s="3"/>
+      <c r="L33" s="3"/>
     </row>
     <row r="34" ht="16" customHeight="1">
       <c r="C34" s="3"/>
@@ -2867,7 +2872,7 @@
     </row>
     <row r="2" s="9" customFormat="1" ht="16.5" customHeight="1">
       <c r="B2" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="3"/>
@@ -2878,51 +2883,51 @@
     <row r="3" s="15" customFormat="1" ht="26.5" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H3" s="15"/>
     </row>
     <row r="4" ht="27.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F4" s="12" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" ht="16.5" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" s="12" t="n">
         <v>0</v>
@@ -2932,17 +2937,17 @@
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" ht="16.5" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C6" s="12" t="n">
         <v>0</v>
@@ -2954,17 +2959,17 @@
         <v>0.6</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" ht="16.5" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" s="12" t="n">
         <v>0</v>
@@ -2974,17 +2979,17 @@
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>0</v>
@@ -2999,113 +3004,113 @@
         <v>0</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H8" s="5"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c r="B9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" ht="16.5" customHeight="1">
       <c r="B10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" s="9" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="12" s="9" customFormat="1" ht="16.5" customHeight="1">
       <c r="B12" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" ht="16.5" customHeight="1">
       <c r="B13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" ht="16.5" customHeight="1">
       <c r="B14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="B15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" ht="16.5" customHeight="1">
       <c r="B16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" ht="16.5" customHeight="1">
       <c r="B17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" s="9" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="19" s="9" customFormat="1" ht="16.5" customHeight="1">
       <c r="B19" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" ht="16.5" customHeight="1">
       <c r="B20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" ht="16.5" customHeight="1">
       <c r="B21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" ht="16.5" customHeight="1">
       <c r="B22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c r="B23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" s="9" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="25" s="9" customFormat="1" ht="16.5" customHeight="1">
       <c r="B25" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" ht="16.5" customHeight="1">
       <c r="B26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" ht="16.5" customHeight="1">
       <c r="B27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" ht="16.5" customHeight="1">
       <c r="B28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" ht="16.5" customHeight="1">
       <c r="B29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
